--- a/Player_Data.xlsx
+++ b/Player_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\personal\GitHBIO\HBIO-DataServices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBIO-DataServices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D73C02-D3BA-4B8A-88B2-9BB63C1A6CE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30277572-1C53-488C-9F53-3DF1EA3520B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1887,13 +1887,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -1901,8 +1903,8 @@
     <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>

--- a/Player_Data.xlsx
+++ b/Player_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBIO-DataServices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\personal\GitHBIO\HBIO-DataServices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30277572-1C53-488C-9F53-3DF1EA3520B8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7A0BC-0334-4A73-B394-8C6323DEE101}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1888,7 +1888,7 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1905,7 @@
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
     <col min="15" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1954,10 +1954,10 @@
         <v>8</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>496</v>
@@ -2006,11 +2006,11 @@
       <c r="N2" t="s">
         <v>485</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="P2" s="5">
+      <c r="O2" s="5">
         <v>32455</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>386</v>
@@ -2059,11 +2059,11 @@
       <c r="N3" t="s">
         <v>486</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="O3" s="5">
         <v>32758</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>490</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>387</v>
@@ -2112,11 +2112,11 @@
       <c r="N4" t="s">
         <v>485</v>
       </c>
-      <c r="O4" t="s">
-        <v>490</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="O4" s="5">
         <v>33061</v>
+      </c>
+      <c r="P4" t="s">
+        <v>490</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>388</v>
@@ -2165,11 +2165,11 @@
       <c r="N5" t="s">
         <v>486</v>
       </c>
-      <c r="O5" t="s">
-        <v>490</v>
-      </c>
-      <c r="P5" s="5">
+      <c r="O5" s="5">
         <v>33364</v>
+      </c>
+      <c r="P5" t="s">
+        <v>490</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>389</v>
@@ -2218,11 +2218,11 @@
       <c r="N6" t="s">
         <v>485</v>
       </c>
-      <c r="O6" t="s">
-        <v>490</v>
-      </c>
-      <c r="P6" s="5">
+      <c r="O6" s="5">
         <v>33667</v>
+      </c>
+      <c r="P6" t="s">
+        <v>490</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>390</v>
@@ -2271,11 +2271,11 @@
       <c r="N7" t="s">
         <v>486</v>
       </c>
-      <c r="O7" t="s">
-        <v>490</v>
-      </c>
-      <c r="P7" s="5">
+      <c r="O7" s="5">
         <v>33970</v>
+      </c>
+      <c r="P7" t="s">
+        <v>490</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>391</v>
@@ -2324,11 +2324,11 @@
       <c r="N8" t="s">
         <v>485</v>
       </c>
-      <c r="O8" t="s">
-        <v>490</v>
-      </c>
-      <c r="P8" s="5">
+      <c r="O8" s="5">
         <v>34273</v>
+      </c>
+      <c r="P8" t="s">
+        <v>490</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>392</v>
@@ -2377,11 +2377,11 @@
       <c r="N9" t="s">
         <v>486</v>
       </c>
-      <c r="O9" t="s">
-        <v>490</v>
-      </c>
-      <c r="P9" s="5">
+      <c r="O9" s="5">
         <v>34576</v>
+      </c>
+      <c r="P9" t="s">
+        <v>490</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>393</v>
@@ -2430,11 +2430,11 @@
       <c r="N10" t="s">
         <v>485</v>
       </c>
-      <c r="O10" t="s">
-        <v>490</v>
-      </c>
-      <c r="P10" s="5">
+      <c r="O10" s="5">
         <v>34879</v>
+      </c>
+      <c r="P10" t="s">
+        <v>490</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>394</v>
@@ -2483,11 +2483,11 @@
       <c r="N11" t="s">
         <v>486</v>
       </c>
-      <c r="O11" t="s">
-        <v>490</v>
-      </c>
-      <c r="P11" s="5">
+      <c r="O11" s="5">
         <v>35182</v>
+      </c>
+      <c r="P11" t="s">
+        <v>490</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>395</v>
@@ -2536,11 +2536,11 @@
       <c r="N12" t="s">
         <v>485</v>
       </c>
-      <c r="O12" t="s">
-        <v>490</v>
-      </c>
-      <c r="P12" s="5">
+      <c r="O12" s="5">
         <v>35485</v>
+      </c>
+      <c r="P12" t="s">
+        <v>490</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>396</v>
@@ -2589,11 +2589,11 @@
       <c r="N13" t="s">
         <v>486</v>
       </c>
-      <c r="O13" t="s">
-        <v>490</v>
-      </c>
-      <c r="P13" s="5">
+      <c r="O13" s="5">
         <v>35788</v>
+      </c>
+      <c r="P13" t="s">
+        <v>490</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>397</v>
@@ -2642,11 +2642,11 @@
       <c r="N14" t="s">
         <v>485</v>
       </c>
-      <c r="O14" t="s">
-        <v>490</v>
-      </c>
-      <c r="P14" s="5">
+      <c r="O14" s="5">
         <v>36091</v>
+      </c>
+      <c r="P14" t="s">
+        <v>490</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>398</v>
@@ -2695,11 +2695,11 @@
       <c r="N15" t="s">
         <v>486</v>
       </c>
-      <c r="O15" t="s">
-        <v>490</v>
-      </c>
-      <c r="P15" s="5">
+      <c r="O15" s="5">
         <v>36394</v>
+      </c>
+      <c r="P15" t="s">
+        <v>490</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>399</v>
@@ -2748,11 +2748,11 @@
       <c r="N16" t="s">
         <v>485</v>
       </c>
-      <c r="O16" t="s">
-        <v>490</v>
-      </c>
-      <c r="P16" s="5">
+      <c r="O16" s="5">
         <v>36697</v>
+      </c>
+      <c r="P16" t="s">
+        <v>490</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>400</v>
@@ -2801,11 +2801,11 @@
       <c r="N17" t="s">
         <v>486</v>
       </c>
-      <c r="O17" t="s">
-        <v>490</v>
-      </c>
-      <c r="P17" s="5">
+      <c r="O17" s="5">
         <v>37000</v>
+      </c>
+      <c r="P17" t="s">
+        <v>490</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>401</v>
@@ -2854,11 +2854,11 @@
       <c r="N18" t="s">
         <v>485</v>
       </c>
-      <c r="O18" t="s">
-        <v>490</v>
-      </c>
-      <c r="P18" s="5">
+      <c r="O18" s="5">
         <v>37303</v>
+      </c>
+      <c r="P18" t="s">
+        <v>490</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>402</v>
@@ -2907,11 +2907,11 @@
       <c r="N19" t="s">
         <v>486</v>
       </c>
-      <c r="O19" t="s">
-        <v>490</v>
-      </c>
-      <c r="P19" s="5">
+      <c r="O19" s="5">
         <v>37606</v>
+      </c>
+      <c r="P19" t="s">
+        <v>490</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>403</v>
@@ -2960,11 +2960,11 @@
       <c r="N20" t="s">
         <v>485</v>
       </c>
-      <c r="O20" t="s">
-        <v>490</v>
-      </c>
-      <c r="P20" s="5">
+      <c r="O20" s="5">
         <v>37909</v>
+      </c>
+      <c r="P20" t="s">
+        <v>490</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>404</v>
@@ -3013,11 +3013,11 @@
       <c r="N21" t="s">
         <v>486</v>
       </c>
-      <c r="O21" t="s">
-        <v>490</v>
-      </c>
-      <c r="P21" s="5">
+      <c r="O21" s="5">
         <v>38212</v>
+      </c>
+      <c r="P21" t="s">
+        <v>490</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>405</v>
@@ -3066,11 +3066,11 @@
       <c r="N22" t="s">
         <v>485</v>
       </c>
-      <c r="O22" t="s">
-        <v>490</v>
-      </c>
-      <c r="P22" s="5">
+      <c r="O22" s="5">
         <v>38515</v>
+      </c>
+      <c r="P22" t="s">
+        <v>490</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>406</v>
@@ -3119,11 +3119,11 @@
       <c r="N23" t="s">
         <v>486</v>
       </c>
-      <c r="O23" t="s">
-        <v>490</v>
-      </c>
-      <c r="P23" s="5">
+      <c r="O23" s="5">
         <v>38818</v>
+      </c>
+      <c r="P23" t="s">
+        <v>490</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>407</v>
@@ -3172,11 +3172,11 @@
       <c r="N24" t="s">
         <v>485</v>
       </c>
-      <c r="O24" t="s">
-        <v>490</v>
-      </c>
-      <c r="P24" s="5">
+      <c r="O24" s="5">
         <v>39121</v>
+      </c>
+      <c r="P24" t="s">
+        <v>490</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>408</v>
@@ -3225,11 +3225,11 @@
       <c r="N25" t="s">
         <v>486</v>
       </c>
-      <c r="O25" t="s">
-        <v>490</v>
-      </c>
-      <c r="P25" s="5">
+      <c r="O25" s="5">
         <v>39424</v>
+      </c>
+      <c r="P25" t="s">
+        <v>490</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>409</v>
@@ -3278,11 +3278,11 @@
       <c r="N26" t="s">
         <v>485</v>
       </c>
-      <c r="O26" t="s">
-        <v>490</v>
-      </c>
-      <c r="P26" s="5">
+      <c r="O26" s="5">
         <v>39727</v>
+      </c>
+      <c r="P26" t="s">
+        <v>490</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>410</v>
@@ -3331,11 +3331,11 @@
       <c r="N27" t="s">
         <v>486</v>
       </c>
-      <c r="O27" t="s">
-        <v>490</v>
-      </c>
-      <c r="P27" s="5">
+      <c r="O27" s="5">
         <v>40030</v>
+      </c>
+      <c r="P27" t="s">
+        <v>490</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>411</v>
@@ -3384,11 +3384,11 @@
       <c r="N28" t="s">
         <v>485</v>
       </c>
-      <c r="O28" t="s">
-        <v>490</v>
-      </c>
-      <c r="P28" s="5">
+      <c r="O28" s="5">
         <v>40333</v>
+      </c>
+      <c r="P28" t="s">
+        <v>490</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>412</v>
@@ -3437,11 +3437,11 @@
       <c r="N29" t="s">
         <v>486</v>
       </c>
-      <c r="O29" t="s">
-        <v>490</v>
-      </c>
-      <c r="P29" s="5">
+      <c r="O29" s="5">
         <v>40636</v>
+      </c>
+      <c r="P29" t="s">
+        <v>490</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>413</v>
@@ -3490,11 +3490,11 @@
       <c r="N30" t="s">
         <v>485</v>
       </c>
-      <c r="O30" t="s">
-        <v>490</v>
-      </c>
-      <c r="P30" s="5">
+      <c r="O30" s="5">
         <v>40939</v>
+      </c>
+      <c r="P30" t="s">
+        <v>490</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>414</v>
@@ -3543,11 +3543,11 @@
       <c r="N31" t="s">
         <v>486</v>
       </c>
-      <c r="O31" t="s">
-        <v>490</v>
-      </c>
-      <c r="P31" s="5">
+      <c r="O31" s="5">
         <v>41242</v>
+      </c>
+      <c r="P31" t="s">
+        <v>490</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>415</v>
@@ -3596,11 +3596,11 @@
       <c r="N32" t="s">
         <v>485</v>
       </c>
-      <c r="O32" t="s">
-        <v>490</v>
-      </c>
-      <c r="P32" s="5">
+      <c r="O32" s="5">
         <v>41545</v>
+      </c>
+      <c r="P32" t="s">
+        <v>490</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>416</v>
@@ -3649,11 +3649,11 @@
       <c r="N33" t="s">
         <v>486</v>
       </c>
-      <c r="O33" t="s">
-        <v>490</v>
-      </c>
-      <c r="P33" s="5">
+      <c r="O33" s="5">
         <v>41848</v>
+      </c>
+      <c r="P33" t="s">
+        <v>490</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>417</v>
@@ -3702,11 +3702,11 @@
       <c r="N34" t="s">
         <v>485</v>
       </c>
-      <c r="O34" t="s">
-        <v>490</v>
-      </c>
-      <c r="P34" s="5">
+      <c r="O34" s="5">
         <v>42151</v>
+      </c>
+      <c r="P34" t="s">
+        <v>490</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>418</v>
@@ -3755,11 +3755,11 @@
       <c r="N35" t="s">
         <v>486</v>
       </c>
-      <c r="O35" t="s">
-        <v>490</v>
-      </c>
-      <c r="P35" s="5">
+      <c r="O35" s="5">
         <v>42454</v>
+      </c>
+      <c r="P35" t="s">
+        <v>490</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>419</v>
@@ -3808,11 +3808,11 @@
       <c r="N36" t="s">
         <v>485</v>
       </c>
-      <c r="O36" t="s">
-        <v>490</v>
-      </c>
-      <c r="P36" s="5">
+      <c r="O36" s="5">
         <v>42757</v>
+      </c>
+      <c r="P36" t="s">
+        <v>490</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>420</v>
@@ -3861,11 +3861,11 @@
       <c r="N37" t="s">
         <v>486</v>
       </c>
-      <c r="O37" t="s">
-        <v>490</v>
-      </c>
-      <c r="P37" s="5">
+      <c r="O37" s="5">
         <v>43060</v>
+      </c>
+      <c r="P37" t="s">
+        <v>490</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>421</v>
@@ -3914,11 +3914,11 @@
       <c r="N38" t="s">
         <v>485</v>
       </c>
-      <c r="O38" t="s">
-        <v>490</v>
-      </c>
-      <c r="P38" s="5">
+      <c r="O38" s="5">
         <v>43363</v>
+      </c>
+      <c r="P38" t="s">
+        <v>490</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>422</v>
@@ -3967,11 +3967,11 @@
       <c r="N39" t="s">
         <v>486</v>
       </c>
-      <c r="O39" t="s">
-        <v>490</v>
-      </c>
-      <c r="P39" s="5">
+      <c r="O39" s="5">
         <v>43666</v>
+      </c>
+      <c r="P39" t="s">
+        <v>490</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>423</v>
@@ -4020,11 +4020,11 @@
       <c r="N40" t="s">
         <v>485</v>
       </c>
-      <c r="O40" t="s">
-        <v>490</v>
-      </c>
-      <c r="P40" s="5">
+      <c r="O40" s="5">
         <v>43969</v>
+      </c>
+      <c r="P40" t="s">
+        <v>490</v>
       </c>
       <c r="Q40" s="3" t="s">
         <v>424</v>
@@ -4073,11 +4073,11 @@
       <c r="N41" t="s">
         <v>486</v>
       </c>
-      <c r="O41" t="s">
-        <v>490</v>
-      </c>
-      <c r="P41" s="5">
+      <c r="O41" s="5">
         <v>44272</v>
+      </c>
+      <c r="P41" t="s">
+        <v>490</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>425</v>
@@ -4126,11 +4126,11 @@
       <c r="N42" t="s">
         <v>485</v>
       </c>
-      <c r="O42" t="s">
-        <v>490</v>
-      </c>
-      <c r="P42" s="5">
+      <c r="O42" s="5">
         <v>44575</v>
+      </c>
+      <c r="P42" t="s">
+        <v>490</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>426</v>
@@ -4179,11 +4179,11 @@
       <c r="N43" t="s">
         <v>486</v>
       </c>
-      <c r="O43" t="s">
-        <v>490</v>
-      </c>
-      <c r="P43" s="5">
+      <c r="O43" s="5">
         <v>44878</v>
+      </c>
+      <c r="P43" t="s">
+        <v>490</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>427</v>
@@ -4232,11 +4232,11 @@
       <c r="N44" t="s">
         <v>485</v>
       </c>
-      <c r="O44" t="s">
-        <v>490</v>
-      </c>
-      <c r="P44" s="5">
+      <c r="O44" s="5">
         <v>45181</v>
+      </c>
+      <c r="P44" t="s">
+        <v>490</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>428</v>
@@ -4285,11 +4285,11 @@
       <c r="N45" t="s">
         <v>486</v>
       </c>
-      <c r="O45" t="s">
-        <v>490</v>
-      </c>
-      <c r="P45" s="5">
+      <c r="O45" s="5">
         <v>45484</v>
+      </c>
+      <c r="P45" t="s">
+        <v>490</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>429</v>
@@ -4338,11 +4338,11 @@
       <c r="N46" t="s">
         <v>485</v>
       </c>
-      <c r="O46" t="s">
-        <v>490</v>
-      </c>
-      <c r="P46" s="5">
+      <c r="O46" s="5">
         <v>45787</v>
+      </c>
+      <c r="P46" t="s">
+        <v>490</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>430</v>
@@ -4391,11 +4391,11 @@
       <c r="N47" t="s">
         <v>486</v>
       </c>
-      <c r="O47" t="s">
-        <v>490</v>
-      </c>
-      <c r="P47" s="5">
+      <c r="O47" s="5">
         <v>46090</v>
+      </c>
+      <c r="P47" t="s">
+        <v>490</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>431</v>
@@ -4444,11 +4444,11 @@
       <c r="N48" t="s">
         <v>485</v>
       </c>
-      <c r="O48" t="s">
-        <v>490</v>
-      </c>
-      <c r="P48" s="5">
+      <c r="O48" s="5">
         <v>46393</v>
+      </c>
+      <c r="P48" t="s">
+        <v>490</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>432</v>
@@ -4497,11 +4497,11 @@
       <c r="N49" t="s">
         <v>486</v>
       </c>
-      <c r="O49" t="s">
-        <v>490</v>
-      </c>
-      <c r="P49" s="5">
+      <c r="O49" s="5">
         <v>46696</v>
+      </c>
+      <c r="P49" t="s">
+        <v>490</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>433</v>
@@ -4550,11 +4550,11 @@
       <c r="N50" t="s">
         <v>485</v>
       </c>
-      <c r="O50" t="s">
-        <v>490</v>
-      </c>
-      <c r="P50" s="5">
+      <c r="O50" s="5">
         <v>46999</v>
+      </c>
+      <c r="P50" t="s">
+        <v>490</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>434</v>
@@ -4603,11 +4603,11 @@
       <c r="N51" t="s">
         <v>486</v>
       </c>
-      <c r="O51" t="s">
-        <v>490</v>
-      </c>
-      <c r="P51" s="5">
+      <c r="O51" s="5">
         <v>47302</v>
+      </c>
+      <c r="P51" t="s">
+        <v>490</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>435</v>
@@ -4656,11 +4656,11 @@
       <c r="N52" t="s">
         <v>485</v>
       </c>
-      <c r="O52" t="s">
-        <v>490</v>
-      </c>
-      <c r="P52" s="5">
+      <c r="O52" s="5">
         <v>47605</v>
+      </c>
+      <c r="P52" t="s">
+        <v>490</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>436</v>
@@ -4709,11 +4709,11 @@
       <c r="N53" t="s">
         <v>486</v>
       </c>
-      <c r="O53" t="s">
-        <v>490</v>
-      </c>
-      <c r="P53" s="5">
+      <c r="O53" s="5">
         <v>47908</v>
+      </c>
+      <c r="P53" t="s">
+        <v>490</v>
       </c>
       <c r="Q53" s="3" t="s">
         <v>437</v>
@@ -4762,11 +4762,11 @@
       <c r="N54" t="s">
         <v>485</v>
       </c>
-      <c r="O54" t="s">
-        <v>490</v>
-      </c>
-      <c r="P54" s="5">
+      <c r="O54" s="5">
         <v>48211</v>
+      </c>
+      <c r="P54" t="s">
+        <v>490</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>438</v>
@@ -4815,11 +4815,11 @@
       <c r="N55" t="s">
         <v>486</v>
       </c>
-      <c r="O55" t="s">
-        <v>490</v>
-      </c>
-      <c r="P55" s="5">
+      <c r="O55" s="5">
         <v>48514</v>
+      </c>
+      <c r="P55" t="s">
+        <v>490</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>439</v>
@@ -4868,11 +4868,11 @@
       <c r="N56" t="s">
         <v>485</v>
       </c>
-      <c r="O56" t="s">
-        <v>490</v>
-      </c>
-      <c r="P56" s="5">
+      <c r="O56" s="5">
         <v>48817</v>
+      </c>
+      <c r="P56" t="s">
+        <v>490</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>440</v>
@@ -4921,11 +4921,11 @@
       <c r="N57" t="s">
         <v>486</v>
       </c>
-      <c r="O57" t="s">
-        <v>490</v>
-      </c>
-      <c r="P57" s="5">
+      <c r="O57" s="5">
         <v>49120</v>
+      </c>
+      <c r="P57" t="s">
+        <v>490</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>441</v>
@@ -4974,11 +4974,11 @@
       <c r="N58" t="s">
         <v>485</v>
       </c>
-      <c r="O58" t="s">
-        <v>490</v>
-      </c>
-      <c r="P58" s="5">
+      <c r="O58" s="5">
         <v>49423</v>
+      </c>
+      <c r="P58" t="s">
+        <v>490</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>442</v>
@@ -5027,11 +5027,11 @@
       <c r="N59" t="s">
         <v>486</v>
       </c>
-      <c r="O59" t="s">
-        <v>490</v>
-      </c>
-      <c r="P59" s="5">
+      <c r="O59" s="5">
         <v>49726</v>
+      </c>
+      <c r="P59" t="s">
+        <v>490</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>443</v>
@@ -5080,11 +5080,11 @@
       <c r="N60" t="s">
         <v>485</v>
       </c>
-      <c r="O60" t="s">
-        <v>490</v>
-      </c>
-      <c r="P60" s="5">
+      <c r="O60" s="5">
         <v>50029</v>
+      </c>
+      <c r="P60" t="s">
+        <v>490</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>444</v>
@@ -5133,11 +5133,11 @@
       <c r="N61" t="s">
         <v>486</v>
       </c>
-      <c r="O61" t="s">
-        <v>490</v>
-      </c>
-      <c r="P61" s="5">
+      <c r="O61" s="5">
         <v>50332</v>
+      </c>
+      <c r="P61" t="s">
+        <v>490</v>
       </c>
       <c r="Q61" s="3" t="s">
         <v>445</v>
@@ -5186,11 +5186,11 @@
       <c r="N62" t="s">
         <v>485</v>
       </c>
-      <c r="O62" t="s">
-        <v>490</v>
-      </c>
-      <c r="P62" s="5">
+      <c r="O62" s="5">
         <v>50635</v>
+      </c>
+      <c r="P62" t="s">
+        <v>490</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>446</v>
@@ -5239,11 +5239,11 @@
       <c r="N63" t="s">
         <v>486</v>
       </c>
-      <c r="O63" t="s">
-        <v>490</v>
-      </c>
-      <c r="P63" s="5">
+      <c r="O63" s="5">
         <v>50938</v>
+      </c>
+      <c r="P63" t="s">
+        <v>490</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>447</v>
@@ -5292,11 +5292,11 @@
       <c r="N64" t="s">
         <v>485</v>
       </c>
-      <c r="O64" t="s">
-        <v>490</v>
-      </c>
-      <c r="P64" s="5">
+      <c r="O64" s="5">
         <v>51241</v>
+      </c>
+      <c r="P64" t="s">
+        <v>490</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>448</v>
@@ -5345,11 +5345,11 @@
       <c r="N65" t="s">
         <v>486</v>
       </c>
-      <c r="O65" t="s">
-        <v>490</v>
-      </c>
-      <c r="P65" s="5">
+      <c r="O65" s="5">
         <v>51544</v>
+      </c>
+      <c r="P65" t="s">
+        <v>490</v>
       </c>
       <c r="Q65" s="3" t="s">
         <v>449</v>
@@ -5398,11 +5398,11 @@
       <c r="N66" t="s">
         <v>485</v>
       </c>
-      <c r="O66" t="s">
-        <v>490</v>
-      </c>
-      <c r="P66" s="5">
+      <c r="O66" s="5">
         <v>51847</v>
+      </c>
+      <c r="P66" t="s">
+        <v>490</v>
       </c>
       <c r="Q66" s="3" t="s">
         <v>450</v>
@@ -5451,11 +5451,11 @@
       <c r="N67" t="s">
         <v>486</v>
       </c>
-      <c r="O67" t="s">
-        <v>490</v>
-      </c>
-      <c r="P67" s="5">
+      <c r="O67" s="5">
         <v>52150</v>
+      </c>
+      <c r="P67" t="s">
+        <v>490</v>
       </c>
       <c r="Q67" s="3" t="s">
         <v>451</v>
@@ -5504,11 +5504,11 @@
       <c r="N68" t="s">
         <v>485</v>
       </c>
-      <c r="O68" t="s">
-        <v>490</v>
-      </c>
-      <c r="P68" s="5">
+      <c r="O68" s="5">
         <v>52453</v>
+      </c>
+      <c r="P68" t="s">
+        <v>490</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>452</v>
@@ -5557,11 +5557,11 @@
       <c r="N69" t="s">
         <v>486</v>
       </c>
-      <c r="O69" t="s">
-        <v>490</v>
-      </c>
-      <c r="P69" s="5">
+      <c r="O69" s="5">
         <v>52756</v>
+      </c>
+      <c r="P69" t="s">
+        <v>490</v>
       </c>
       <c r="Q69" s="3" t="s">
         <v>453</v>
@@ -5610,11 +5610,11 @@
       <c r="N70" t="s">
         <v>485</v>
       </c>
-      <c r="O70" t="s">
-        <v>490</v>
-      </c>
-      <c r="P70" s="5">
+      <c r="O70" s="5">
         <v>53059</v>
+      </c>
+      <c r="P70" t="s">
+        <v>490</v>
       </c>
       <c r="Q70" s="3" t="s">
         <v>454</v>
@@ -5663,11 +5663,11 @@
       <c r="N71" t="s">
         <v>486</v>
       </c>
-      <c r="O71" t="s">
-        <v>490</v>
-      </c>
-      <c r="P71" s="5">
+      <c r="O71" s="5">
         <v>53362</v>
+      </c>
+      <c r="P71" t="s">
+        <v>490</v>
       </c>
       <c r="Q71" s="3" t="s">
         <v>455</v>
@@ -5716,11 +5716,11 @@
       <c r="N72" t="s">
         <v>485</v>
       </c>
-      <c r="O72" t="s">
-        <v>490</v>
-      </c>
-      <c r="P72" s="5">
+      <c r="O72" s="5">
         <v>53665</v>
+      </c>
+      <c r="P72" t="s">
+        <v>490</v>
       </c>
       <c r="Q72" s="3" t="s">
         <v>456</v>
@@ -5769,11 +5769,11 @@
       <c r="N73" t="s">
         <v>486</v>
       </c>
-      <c r="O73" t="s">
-        <v>490</v>
-      </c>
-      <c r="P73" s="5">
+      <c r="O73" s="5">
         <v>53968</v>
+      </c>
+      <c r="P73" t="s">
+        <v>490</v>
       </c>
       <c r="Q73" s="3" t="s">
         <v>457</v>
@@ -5822,11 +5822,11 @@
       <c r="N74" t="s">
         <v>485</v>
       </c>
-      <c r="O74" t="s">
-        <v>490</v>
-      </c>
-      <c r="P74" s="5">
+      <c r="O74" s="5">
         <v>54271</v>
+      </c>
+      <c r="P74" t="s">
+        <v>490</v>
       </c>
       <c r="Q74" s="3" t="s">
         <v>458</v>
@@ -5875,11 +5875,11 @@
       <c r="N75" t="s">
         <v>486</v>
       </c>
-      <c r="O75" t="s">
-        <v>490</v>
-      </c>
-      <c r="P75" s="5">
+      <c r="O75" s="5">
         <v>54574</v>
+      </c>
+      <c r="P75" t="s">
+        <v>490</v>
       </c>
       <c r="Q75" s="3" t="s">
         <v>459</v>
@@ -5928,11 +5928,11 @@
       <c r="N76" t="s">
         <v>485</v>
       </c>
-      <c r="O76" t="s">
-        <v>490</v>
-      </c>
-      <c r="P76" s="5">
+      <c r="O76" s="5">
         <v>54877</v>
+      </c>
+      <c r="P76" t="s">
+        <v>490</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>460</v>
@@ -5981,11 +5981,11 @@
       <c r="N77" t="s">
         <v>486</v>
       </c>
-      <c r="O77" t="s">
-        <v>490</v>
-      </c>
-      <c r="P77" s="5">
+      <c r="O77" s="5">
         <v>55180</v>
+      </c>
+      <c r="P77" t="s">
+        <v>490</v>
       </c>
       <c r="Q77" s="3" t="s">
         <v>461</v>
@@ -6034,11 +6034,11 @@
       <c r="N78" t="s">
         <v>485</v>
       </c>
-      <c r="O78" t="s">
-        <v>490</v>
-      </c>
-      <c r="P78" s="5">
+      <c r="O78" s="5">
         <v>55483</v>
+      </c>
+      <c r="P78" t="s">
+        <v>490</v>
       </c>
       <c r="Q78" s="3" t="s">
         <v>462</v>
@@ -6087,11 +6087,11 @@
       <c r="N79" t="s">
         <v>486</v>
       </c>
-      <c r="O79" t="s">
-        <v>490</v>
-      </c>
-      <c r="P79" s="5">
+      <c r="O79" s="5">
         <v>55786</v>
+      </c>
+      <c r="P79" t="s">
+        <v>490</v>
       </c>
       <c r="Q79" s="3" t="s">
         <v>463</v>
@@ -6140,11 +6140,11 @@
       <c r="N80" t="s">
         <v>485</v>
       </c>
-      <c r="O80" t="s">
-        <v>490</v>
-      </c>
-      <c r="P80" s="5">
+      <c r="O80" s="5">
         <v>56089</v>
+      </c>
+      <c r="P80" t="s">
+        <v>490</v>
       </c>
       <c r="Q80" s="3" t="s">
         <v>464</v>
@@ -6193,11 +6193,11 @@
       <c r="N81" t="s">
         <v>486</v>
       </c>
-      <c r="O81" t="s">
-        <v>490</v>
-      </c>
-      <c r="P81" s="5">
+      <c r="O81" s="5">
         <v>56392</v>
+      </c>
+      <c r="P81" t="s">
+        <v>490</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>465</v>
@@ -6246,11 +6246,11 @@
       <c r="N82" t="s">
         <v>485</v>
       </c>
-      <c r="O82" t="s">
-        <v>490</v>
-      </c>
-      <c r="P82" s="5">
+      <c r="O82" s="5">
         <v>56695</v>
+      </c>
+      <c r="P82" t="s">
+        <v>490</v>
       </c>
       <c r="Q82" s="3" t="s">
         <v>466</v>
@@ -6299,11 +6299,11 @@
       <c r="N83" t="s">
         <v>486</v>
       </c>
-      <c r="O83" t="s">
-        <v>490</v>
-      </c>
-      <c r="P83" s="5">
+      <c r="O83" s="5">
         <v>56998</v>
+      </c>
+      <c r="P83" t="s">
+        <v>490</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>467</v>
@@ -6352,11 +6352,11 @@
       <c r="N84" t="s">
         <v>485</v>
       </c>
-      <c r="O84" t="s">
-        <v>490</v>
-      </c>
-      <c r="P84" s="5">
+      <c r="O84" s="5">
         <v>57301</v>
+      </c>
+      <c r="P84" t="s">
+        <v>490</v>
       </c>
       <c r="Q84" s="3" t="s">
         <v>468</v>
@@ -6405,11 +6405,11 @@
       <c r="N85" t="s">
         <v>486</v>
       </c>
-      <c r="O85" t="s">
-        <v>490</v>
-      </c>
-      <c r="P85" s="5">
+      <c r="O85" s="5">
         <v>57604</v>
+      </c>
+      <c r="P85" t="s">
+        <v>490</v>
       </c>
       <c r="Q85" s="3" t="s">
         <v>469</v>
@@ -6458,11 +6458,11 @@
       <c r="N86" t="s">
         <v>485</v>
       </c>
-      <c r="O86" t="s">
-        <v>490</v>
-      </c>
-      <c r="P86" s="5">
+      <c r="O86" s="5">
         <v>57907</v>
+      </c>
+      <c r="P86" t="s">
+        <v>490</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>470</v>
@@ -6511,11 +6511,11 @@
       <c r="N87" t="s">
         <v>486</v>
       </c>
-      <c r="O87" t="s">
-        <v>490</v>
-      </c>
-      <c r="P87" s="5">
+      <c r="O87" s="5">
         <v>58210</v>
+      </c>
+      <c r="P87" t="s">
+        <v>490</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>471</v>
@@ -6564,11 +6564,11 @@
       <c r="N88" t="s">
         <v>485</v>
       </c>
-      <c r="O88" t="s">
-        <v>490</v>
-      </c>
-      <c r="P88" s="5">
+      <c r="O88" s="5">
         <v>58513</v>
+      </c>
+      <c r="P88" t="s">
+        <v>490</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>472</v>
@@ -6617,11 +6617,11 @@
       <c r="N89" t="s">
         <v>486</v>
       </c>
-      <c r="O89" t="s">
-        <v>490</v>
-      </c>
-      <c r="P89" s="5">
+      <c r="O89" s="5">
         <v>58816</v>
+      </c>
+      <c r="P89" t="s">
+        <v>490</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>473</v>
@@ -6670,11 +6670,11 @@
       <c r="N90" t="s">
         <v>485</v>
       </c>
-      <c r="O90" t="s">
-        <v>490</v>
-      </c>
-      <c r="P90" s="5">
+      <c r="O90" s="5">
         <v>59119</v>
+      </c>
+      <c r="P90" t="s">
+        <v>490</v>
       </c>
       <c r="Q90" s="3" t="s">
         <v>474</v>
@@ -6723,11 +6723,11 @@
       <c r="N91" t="s">
         <v>486</v>
       </c>
-      <c r="O91" t="s">
-        <v>490</v>
-      </c>
-      <c r="P91" s="5">
+      <c r="O91" s="5">
         <v>59422</v>
+      </c>
+      <c r="P91" t="s">
+        <v>490</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>475</v>
@@ -6776,11 +6776,11 @@
       <c r="N92" t="s">
         <v>485</v>
       </c>
-      <c r="O92" t="s">
-        <v>490</v>
-      </c>
-      <c r="P92" s="5">
+      <c r="O92" s="5">
         <v>59725</v>
+      </c>
+      <c r="P92" t="s">
+        <v>490</v>
       </c>
       <c r="Q92" s="3" t="s">
         <v>476</v>
@@ -6829,11 +6829,11 @@
       <c r="N93" t="s">
         <v>486</v>
       </c>
-      <c r="O93" t="s">
-        <v>490</v>
-      </c>
-      <c r="P93" s="5">
+      <c r="O93" s="5">
         <v>60028</v>
+      </c>
+      <c r="P93" t="s">
+        <v>490</v>
       </c>
       <c r="Q93" s="3" t="s">
         <v>477</v>
@@ -6882,11 +6882,11 @@
       <c r="N94" t="s">
         <v>485</v>
       </c>
-      <c r="O94" t="s">
-        <v>490</v>
-      </c>
-      <c r="P94" s="5">
+      <c r="O94" s="5">
         <v>60331</v>
+      </c>
+      <c r="P94" t="s">
+        <v>490</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>478</v>
@@ -6935,11 +6935,11 @@
       <c r="N95" t="s">
         <v>486</v>
       </c>
-      <c r="O95" t="s">
-        <v>490</v>
-      </c>
-      <c r="P95" s="5">
+      <c r="O95" s="5">
         <v>60634</v>
+      </c>
+      <c r="P95" t="s">
+        <v>490</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>469</v>
@@ -6988,11 +6988,11 @@
       <c r="N96" t="s">
         <v>485</v>
       </c>
-      <c r="O96" t="s">
-        <v>490</v>
-      </c>
-      <c r="P96" s="5">
+      <c r="O96" s="5">
         <v>60937</v>
+      </c>
+      <c r="P96" t="s">
+        <v>490</v>
       </c>
       <c r="Q96" s="3" t="s">
         <v>479</v>
@@ -7041,11 +7041,11 @@
       <c r="N97" t="s">
         <v>486</v>
       </c>
-      <c r="O97" t="s">
-        <v>490</v>
-      </c>
-      <c r="P97" s="5">
+      <c r="O97" s="5">
         <v>61240</v>
+      </c>
+      <c r="P97" t="s">
+        <v>490</v>
       </c>
       <c r="Q97" s="3" t="s">
         <v>480</v>
@@ -7094,11 +7094,11 @@
       <c r="N98" t="s">
         <v>485</v>
       </c>
-      <c r="O98" t="s">
-        <v>490</v>
-      </c>
-      <c r="P98" s="5">
+      <c r="O98" s="5">
         <v>61543</v>
+      </c>
+      <c r="P98" t="s">
+        <v>490</v>
       </c>
       <c r="Q98" s="3" t="s">
         <v>481</v>
@@ -7147,11 +7147,11 @@
       <c r="N99" t="s">
         <v>486</v>
       </c>
-      <c r="O99" t="s">
-        <v>490</v>
-      </c>
-      <c r="P99" s="5">
+      <c r="O99" s="5">
         <v>61846</v>
+      </c>
+      <c r="P99" t="s">
+        <v>490</v>
       </c>
       <c r="Q99" s="3" t="s">
         <v>482</v>
@@ -7200,11 +7200,11 @@
       <c r="N100" t="s">
         <v>485</v>
       </c>
-      <c r="O100" t="s">
-        <v>490</v>
-      </c>
-      <c r="P100" s="5">
+      <c r="O100" s="5">
         <v>62149</v>
+      </c>
+      <c r="P100" t="s">
+        <v>490</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>483</v>
@@ -7253,11 +7253,11 @@
       <c r="N101" t="s">
         <v>486</v>
       </c>
-      <c r="O101" t="s">
-        <v>490</v>
-      </c>
-      <c r="P101" s="5">
+      <c r="O101" s="5">
         <v>62452</v>
+      </c>
+      <c r="P101" t="s">
+        <v>490</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>484</v>
